--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Loại bỏ quảng cáo StarApp và thêm quảng cáo Admob vào phần hiển thị chi tiết nghĩa từ phần Widget và trong phần Test</t>
+  </si>
+  <si>
+    <t>Hỗ trợ LongClick vào button hiển thị Guide</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E37"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,46 +684,48 @@
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="45">
+    <row r="10" spans="1:5">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
@@ -890,15 +895,22 @@
       <c r="D37" s="3"/>
       <c r="E37" s="9"/>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,41 @@
   </si>
   <si>
     <t>Hỗ trợ LongClick vào button hiển thị Guide</t>
+  </si>
+  <si>
+    <t>Thêm tính năng Dịch/Phát âm với các đoạn văn trong phần test.</t>
+  </si>
+  <si>
+    <t>Thêm tính năng xem ứng dụng cùng tác giá trong hộp thoại thoát ứng dụng.</t>
+  </si>
+  <si>
+    <t>Tính năng tự động check version và yêu cầu người dùng cập nhật bản mới</t>
+  </si>
+  <si>
+    <t>Chua test ky</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fix một số lỗi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Khi bỏ nghĩa tiếng việt thì không hiển thị tiếng việt trong phần Category. Không hiển thị nghĩa tiếng việt là chế độ mặc định.
+  - Thiết lập thuộc tính minWidth cho các button trong hộp thoại Thoát ứng dụng.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -221,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +292,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,19 +633,20 @@
     <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" ht="20.25">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -637,14 +676,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17">
+    <row r="6" spans="1:6">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -654,10 +693,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
@@ -665,95 +704,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="21">
+    <row r="8" spans="1:6">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>1.6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="E8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="E11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="90">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9"/>
@@ -902,15 +967,36 @@
       <c r="D38" s="3"/>
       <c r="E38" s="9"/>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="C8:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Thay đổi so phiên bản trước</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Trạng thái thay đổi</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Thêm tính năng chia sẻ</t>
   </si>
   <si>
-    <t>Để phiên bản sau</t>
-  </si>
-  <si>
     <t>QUẢN LÝ PHIÊN BẢN ỨNG DỤNG TOEICDAILY</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
   </si>
   <si>
     <t>Tính năng tự động check version và yêu cầu người dùng cập nhật bản mới</t>
-  </si>
-  <si>
-    <t>Chua test ky</t>
   </si>
   <si>
     <r>
@@ -115,12 +106,15 @@
   - Thiết lập thuộc tính minWidth cho các button trong hộp thoại Thoát ứng dụng.</t>
     </r>
   </si>
+  <si>
+    <t>24/11/2013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +144,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -289,12 +277,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +303,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -637,16 +625,16 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="2" spans="1:5" ht="20.25">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,164 +648,158 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18">
+    <row r="6" spans="1:5">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>12</v>
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22">
-        <v>3</v>
-      </c>
-      <c r="B8" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="10" t="s">
+      <c r="E12" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="13" t="s">
+      <c r="E14" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12" t="s">
+      <c r="E16" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>6</v>
+      <c r="E17" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -994,9 +976,9 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>24/11/2013</t>
+  </si>
+  <si>
+    <t>27/11/2013</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Fix bug for share feature.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ bộ dữ liệu IELTS '5000 words for TOEFL &amp; IELTS'</t>
+  </si>
+  <si>
+    <t>Thêm quảng cáo toàn màn hình.</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,16 +311,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -693,13 +723,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="24">
         <v>1.6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -803,25 +833,49 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="28">
+        <v>5</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1.9</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9"/>
@@ -971,7 +1025,10 @@
       <c r="E41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>

--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Thêm quảng cáo toàn màn hình.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ bộ dữ liệu "3420 Toeic vocabulary" data</t>
+  </si>
+  <si>
+    <t>Trong phần test, hỗ trợ kích vào text tương đương kích vào Radio</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>16/03/2014</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,6 +308,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,20 +350,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,13 +671,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -695,13 +710,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -712,9 +727,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -723,13 +738,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="24">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="29">
         <v>1.6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -740,27 +755,27 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
@@ -769,9 +784,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
@@ -780,18 +795,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
@@ -800,9 +815,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
@@ -811,9 +826,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
@@ -822,9 +837,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="90">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
@@ -839,7 +854,7 @@
       <c r="B18" s="9">
         <v>1.8</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -850,13 +865,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="28">
-        <v>5</v>
-      </c>
-      <c r="B19" s="28">
+      <c r="A19" s="19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="19">
         <v>1.9</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -867,9 +882,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
@@ -878,18 +893,32 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
+      <c r="A21" s="19">
+        <v>6</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9"/>
@@ -1025,7 +1054,10 @@
       <c r="E41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>

--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -135,6 +135,37 @@
   </si>
   <si>
     <t>16/03/2014</t>
+  </si>
+  <si>
+    <t>Hỗ trợ chế độ hiển thị từ Ngẫu nhiên/Tuần tự</t>
+  </si>
+  <si>
+    <t>Hỗ trợ cấu hình transparent cho Widget</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>Sử dụng menu drawer bên trái thay cho Soft Menu. Thêm một số chức năng để PR MobileSoftVn. Nút SoftMenu tạm thời sẽ ẩn đi.</t>
+  </si>
+  <si>
+    <t>Sửa lỗi không phát âm trên Widget</t>
+  </si>
+  <si>
+    <t>Các quảng cáo full màn hình gồm:
+- Đóng hộp thoại Test (Cũ)
+- Hiển thị khi đổi kiểu Test (Mới)
+- Học trên màn hinh học từ quá 30 phút bật quảng cáo
+- Trên màn hinh danh mục kích liên tiếp 3 danh mục thì sẽ hiển thị quảng cáo (Cũ là 6, giờ đổi thành 3).</t>
+  </si>
+  <si>
+    <t>NOK (Để phiên bản sau)</t>
+  </si>
+  <si>
+    <t>Đổi id quảng cáo sang id mới theo yêu cầu của Google</t>
+  </si>
+  <si>
+    <t>24/06/2014</t>
   </si>
 </sst>
 </file>
@@ -271,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +342,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,13 +705,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -710,13 +744,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -727,9 +761,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -738,13 +772,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="31">
         <v>1.6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -755,27 +789,27 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
@@ -784,9 +818,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
@@ -795,18 +829,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
@@ -815,9 +849,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
@@ -826,9 +860,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
@@ -837,9 +871,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="90">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
@@ -865,13 +899,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19">
-        <v>5</v>
-      </c>
-      <c r="B19" s="19">
+      <c r="A19" s="21">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21">
         <v>1.9</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -882,9 +916,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
@@ -893,13 +927,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19">
+      <c r="A21" s="21">
         <v>6</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -910,57 +944,85 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="30" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" s="9">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9"/>
@@ -1053,14 +1115,22 @@
       <c r="D41" s="3"/>
       <c r="E41" s="9"/>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -1068,6 +1138,12 @@
     <mergeCell ref="C8:C17"/>
     <mergeCell ref="B8:B17"/>
     <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/toeicdaily/version/ToeicDaily_Version.xlsx
+++ b/toeicdaily/version/ToeicDaily_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -149,23 +149,33 @@
     <t>Sử dụng menu drawer bên trái thay cho Soft Menu. Thêm một số chức năng để PR MobileSoftVn. Nút SoftMenu tạm thời sẽ ẩn đi.</t>
   </si>
   <si>
-    <t>Sửa lỗi không phát âm trên Widget</t>
+    <t>NOK (Để phiên bản sau)</t>
+  </si>
+  <si>
+    <t>Đổi id quảng cáo sang id mới theo yêu cầu của Google</t>
+  </si>
+  <si>
+    <t>24/06/2014</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Fix lỗi icon</t>
+  </si>
+  <si>
+    <t>Thêm phân dữ liệu listening cho "600 Toeic Words"</t>
+  </si>
+  <si>
+    <t>Sửa lỗi không phát âm trên Widget lần đầu tiên</t>
   </si>
   <si>
     <t>Các quảng cáo full màn hình gồm:
-- Đóng hộp thoại Test (Cũ)
-- Hiển thị khi đổi kiểu Test (Mới)
-- Học trên màn hinh học từ quá 30 phút bật quảng cáo
-- Trên màn hinh danh mục kích liên tiếp 3 danh mục thì sẽ hiển thị quảng cáo (Cũ là 6, giờ đổi thành 3).</t>
-  </si>
-  <si>
-    <t>NOK (Để phiên bản sau)</t>
-  </si>
-  <si>
-    <t>Đổi id quảng cáo sang id mới theo yêu cầu của Google</t>
-  </si>
-  <si>
-    <t>24/06/2014</t>
+- Sang màn hinh học từ
+- Hoàn thành/Làm lại các bài test.</t>
+  </si>
+  <si>
+    <t>28/09/2014</t>
   </si>
 </sst>
 </file>
@@ -238,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,11 +308,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,21 +404,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,6 +429,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,7 +767,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,13 +782,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -744,13 +821,13 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="24">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -761,9 +838,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -772,13 +849,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="26">
         <v>1.6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -789,27 +866,27 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
@@ -818,9 +895,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
@@ -829,18 +906,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
@@ -849,9 +926,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
@@ -860,9 +937,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
@@ -871,9 +948,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="90">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
@@ -899,13 +976,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="21">
-        <v>5</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="A19" s="29">
+        <v>5</v>
+      </c>
+      <c r="B19" s="29">
         <v>1.9</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -916,9 +993,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
@@ -927,13 +1004,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="21">
+      <c r="A21" s="29">
         <v>6</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -944,9 +1021,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="17" t="s">
         <v>30</v>
       </c>
@@ -955,14 +1032,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="9">
+      <c r="A23" s="35">
         <v>7</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>41</v>
+      <c r="C23" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>36</v>
@@ -972,7 +1049,9 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="9"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
@@ -981,62 +1060,76 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="29">
+        <v>8</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="90">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9"/>
@@ -1130,7 +1223,19 @@
       <c r="E43" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -1138,12 +1243,6 @@
     <mergeCell ref="C8:C17"/>
     <mergeCell ref="B8:B17"/>
     <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
